--- a/Jul 2020 to Aug 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jul 2020 to Aug 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2EF7A8-A9DA-483D-9BD0-282C2404615B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B5043-25B0-43FE-A650-3EE7218B2174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="May 2020 to Jun 2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Jul 2020 to Aug 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2020 to Jun 2020'!$A$1:$E$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Jul 2020 to Aug 2020'!$A$1:$E$94</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1213,7 +1213,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Jul 2020 to Aug 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jul 2020 to Aug 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B5043-25B0-43FE-A650-3EE7218B2174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FF9D0-0246-4D7B-AEDF-434A8C7A81F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
   <si>
     <t>Comment</t>
   </si>
@@ -343,25 +343,28 @@
     <t>WGN America</t>
   </si>
   <si>
-    <t>New Alias Added for Network in Aug 2020</t>
-  </si>
-  <si>
-    <t>New Network Added to database in Aug 2020</t>
-  </si>
-  <si>
     <t>Network Added to Base Service in Aug 2020</t>
   </si>
   <si>
-    <t>Network Added to Add-On Service in Aug 2020</t>
-  </si>
-  <si>
     <t>Network Removed from Base Service in Aug 2020</t>
   </si>
   <si>
-    <t>Network Removed from Add-On Service in Aug 2020</t>
-  </si>
-  <si>
-    <t>Name of Add-On Serevice Changed in Aug 2020</t>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Aug 2020</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package in Aug 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package in Aug 2020</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package in Aug 2020</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1253,7 +1256,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1270,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1284,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1298,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1312,7 +1315,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1326,7 +1329,7 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1343,7 +1346,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1357,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1371,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1385,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1399,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1413,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1427,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1441,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1455,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1472,7 +1475,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1486,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1500,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1514,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1528,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1542,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1559,7 +1562,7 @@
         <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1573,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1587,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1601,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1615,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1629,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1643,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1657,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1671,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1685,7 +1688,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1702,7 +1705,7 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1719,7 +1722,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1736,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1750,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1764,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1778,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1795,7 +1798,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1809,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1837,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1851,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1865,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1879,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1896,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1910,7 +1913,7 @@
         <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1924,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1938,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1952,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1966,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1983,7 +1986,7 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1997,7 +2000,7 @@
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2011,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2025,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2039,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2056,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2073,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2087,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2104,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2121,7 +2124,7 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2135,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2149,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2163,7 +2166,7 @@
         <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2177,7 +2180,7 @@
         <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2191,7 +2194,7 @@
         <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2205,7 +2208,7 @@
         <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2219,7 +2222,7 @@
         <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2233,7 +2236,7 @@
         <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2247,7 +2250,7 @@
         <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2261,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -2275,7 +2278,7 @@
         <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2289,7 +2292,7 @@
         <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2303,7 +2306,7 @@
         <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2317,7 +2320,7 @@
         <v>104</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -2331,7 +2334,7 @@
         <v>105</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2345,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2359,7 +2362,7 @@
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2373,7 +2376,7 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2387,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2401,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2415,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2429,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2443,7 +2446,7 @@
         <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2457,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="E85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2471,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2485,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2502,7 +2505,7 @@
         <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2516,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -2530,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2544,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2558,7 +2561,7 @@
         <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2572,7 +2575,7 @@
         <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -2589,7 +2592,7 @@
         <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
